--- a/TestScenario_WebForm.xlsx
+++ b/TestScenario_WebForm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadatretakova/Desktop/Group-18/Test_Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadatretakova/Desktop/QA/GIT/Test_Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51B2C5A-35C2-7141-83C2-D0EE9FE6FAD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECEBA7C-B1ED-EE41-9BD9-CF6BDEF7408C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="2860" windowWidth="24760" windowHeight="12180" activeTab="1" xr2:uid="{7B70C1FB-4F83-E243-9C5C-07DE987D43EC}"/>
+    <workbookView xWindow="880" yWindow="800" windowWidth="24760" windowHeight="12180" activeTab="1" xr2:uid="{7B70C1FB-4F83-E243-9C5C-07DE987D43EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -1602,6 +1602,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1623,21 +1632,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="110">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4208,7 +4228,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4222,38 +4242,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="67" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -4279,23 +4299,23 @@
       <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -4479,13 +4499,13 @@
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
@@ -4615,8 +4635,8 @@
       <c r="E23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>17</v>
+      <c r="F23" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -4821,13 +4841,13 @@
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
     </row>
     <row r="35" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
@@ -5163,13 +5183,13 @@
     </row>
     <row r="52" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
     </row>
     <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
@@ -5645,13 +5665,13 @@
     </row>
     <row r="77" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12"/>
-      <c r="B77" s="72" t="s">
+      <c r="B77" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
     </row>
     <row r="78" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
@@ -5907,13 +5927,13 @@
     </row>
     <row r="91" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
-      <c r="B91" s="72" t="s">
+      <c r="B91" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
     </row>
     <row r="92" spans="1:6" s="11" customFormat="1" ht="68" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -5979,23 +5999,23 @@
       <c r="A95" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="73" t="s">
+      <c r="B95" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="73"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
     </row>
     <row r="96" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
-      <c r="B96" s="72" t="s">
+      <c r="B96" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="C96" s="72"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
     </row>
     <row r="97" spans="1:6" ht="34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
@@ -6179,13 +6199,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="12"/>
-      <c r="B106" s="72" t="s">
+      <c r="B106" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
+      <c r="C106" s="75"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
     </row>
     <row r="107" spans="1:6" ht="17" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
@@ -6269,11 +6289,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B106:F106"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B34:F34"/>
@@ -6282,545 +6297,550 @@
     <mergeCell ref="B96:F96"/>
     <mergeCell ref="B95:F95"/>
     <mergeCell ref="B91:F91"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F3 F5:F19 F34:F35 F52:F58 F77:F81 F96:F1048576">
+    <cfRule type="containsText" dxfId="109" priority="112" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3 F5:F19 F34:F35 F52:F58 F77:F81 F96:F1048576">
+    <cfRule type="containsText" dxfId="108" priority="111" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3 F5:F19 F34:F35 F52:F58 F77:F81 F96:F1048576">
+      <formula>NOT(ISERROR(SEARCH("Fail",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="containsText" dxfId="106" priority="109" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+      <formula>NOT(ISERROR(SEARCH("Pass",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+      <formula>NOT(ISERROR(SEARCH("Fail",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+      <formula>NOT(ISERROR(SEARCH("Pass",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+      <formula>NOT(ISERROR(SEARCH("Fail",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="containsText" dxfId="102" priority="105" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="101" priority="104" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F27">
+    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F29">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F29">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="containsText" dxfId="72" priority="75" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="70" priority="73" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="containsText" dxfId="56" priority="59" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82">
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82">
+    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:F90">
+    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:F90">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="containsText" dxfId="39" priority="32" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="containsText" dxfId="35" priority="38" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",F94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",F94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="98" priority="101" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",F23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F27">
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="72" priority="75" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="70" priority="73" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="56" priority="59" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:F90">
-    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:F90">
-    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="37" priority="30" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="35" priority="38" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F95)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F95)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",F94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",F94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
